--- a/db_vegmap1.xlsx
+++ b/db_vegmap1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laboratorio-Info\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laboratorio-Info\Documents\DB_VEGMAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="48">
   <si>
     <t>CAMPO</t>
   </si>
@@ -128,12 +128,6 @@
     <t>DescricaoEstab</t>
   </si>
   <si>
-    <t>HÁ</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
     <t>PRODUTO</t>
   </si>
   <si>
@@ -168,6 +162,12 @@
   </si>
   <si>
     <t>idAvaliacaoP</t>
+  </si>
+  <si>
+    <t>NotaP</t>
+  </si>
+  <si>
+    <t>ComentarioP</t>
   </si>
 </sst>
 </file>
@@ -207,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -230,6 +230,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -243,13 +252,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K60"/>
+  <dimension ref="B3:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,9 +560,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -595,17 +613,17 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="J5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -621,17 +639,17 @@
         <v>30</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -645,17 +663,17 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -671,17 +689,17 @@
         <v>50</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -697,24 +715,33 @@
         <v>25</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="7" t="s">
+      <c r="G9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
@@ -756,17 +783,17 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="J13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -782,17 +809,17 @@
         <v>40</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="G14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -806,17 +833,17 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="7" t="s">
+      <c r="G15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -830,17 +857,17 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -856,17 +883,17 @@
         <v>50</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="G17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -882,24 +909,33 @@
         <v>25</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="7" t="s">
+      <c r="G18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
@@ -940,18 +976,18 @@
         <v>18</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="7" t="s">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="5"/>
-      <c r="J23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="7" t="s">
+      <c r="J23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -966,18 +1002,18 @@
       <c r="E24" s="1">
         <v>50</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="7" t="s">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -992,18 +1028,18 @@
       <c r="E25" s="1">
         <v>40</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="7" t="s">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1016,18 +1052,18 @@
         <v>18</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="7" t="s">
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1042,150 +1078,165 @@
       <c r="E27" s="1">
         <v>320</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="7" t="s">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="7" t="s">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1">
+        <v>20</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E37" s="1">
         <v>20</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F36" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>13</v>
+      <c r="F37" s="1"/>
+      <c r="G37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -1194,21 +1245,23 @@
         <v>37</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E38" s="1">
+        <v>20</v>
+      </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="7" t="s">
+      <c r="G38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1221,20 +1274,20 @@
         <v>12</v>
       </c>
       <c r="E39" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K39" s="7" t="s">
+      <c r="G39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1247,108 +1300,113 @@
         <v>12</v>
       </c>
       <c r="E40" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
+      <c r="G40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B43" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="1">
-        <v>8</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="1">
-        <v>15</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F45" s="6" t="s">
+      <c r="D45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>13</v>
+      <c r="D46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
@@ -1357,133 +1415,142 @@
         <v>43</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E47" s="1">
+        <v>300</v>
+      </c>
       <c r="F47" s="1"/>
-      <c r="G47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="5"/>
-      <c r="J47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>15</v>
+      <c r="G47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B51" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="5"/>
+      <c r="J53" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="1">
-        <v>300</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F53" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>13</v>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
@@ -1492,104 +1559,64 @@
         <v>47</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E55" s="1">
+        <v>300</v>
+      </c>
       <c r="F55" s="1"/>
-      <c r="G55" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="5"/>
-      <c r="J55" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>15</v>
+      <c r="G55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="1">
-        <v>300</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K57" s="7" t="s">
+      <c r="G56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J60" s="8"/>
+      <c r="J58" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="B43:K43"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
